--- a/calibrationResult.xlsx
+++ b/calibrationResult.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\microscope_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\microscope\Desktop\microscope_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086FD30-1267-4046-B7AD-7792DC6367C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="8307" xr2:uid="{62DF06FB-D82F-4315-948D-BAA28E944B19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -178,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,15 +262,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,33 +584,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D015F-6A09-42A7-A5E7-2D8E6025A2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="8.796875" style="1"/>
-    <col min="15" max="15" width="8.296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="1"/>
-    <col min="17" max="17" width="15.8984375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
@@ -718,12 +726,12 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="F5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -840,7 +848,7 @@
       <c r="O7" s="2">
         <v>200</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="12">
         <f>O7/L7</f>
         <v>0.21083702298123549</v>
       </c>
@@ -948,12 +956,12 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>5.9353513567425713</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:G19" si="3">E15/$P$7</f>
+        <f t="shared" ref="G15:G27" si="3">E15/$P$7</f>
         <v>2.3948423211424941</v>
       </c>
       <c r="H15" s="2"/>
@@ -1066,12 +1074,12 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -1123,7 +1131,7 @@
         <v>53125</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E19" si="4">27000/D18</f>
+        <f t="shared" ref="E18:E23" si="4">27000/D18</f>
         <v>0.50823529411764701</v>
       </c>
       <c r="F18" s="5">
@@ -1180,8 +1188,18 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="5" t="e">
+        <f t="shared" ref="F20" si="5">E20/$P$8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1194,8 +1212,15 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1208,8 +1233,15 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1225,10 +1257,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="2">
+        <v>51570</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F27" si="6">E23/$P$8</f>
+        <v>6.154450261780104</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4832460732984294</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1241,10 +1284,21 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
+      <c r="D24" s="2">
+        <v>52079</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:E27" si="7">27000/D24</f>
+        <v>0.51844313446878776</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>6.0942990456806001</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4589757867854605</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1257,10 +1311,11 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1269,7 +1324,39 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
+    <row r="26" spans="1:15">
+      <c r="D26" s="2">
+        <v>54304</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.49720094284030641</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>5.8445970830878018</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3582240718915735</v>
+      </c>
+    </row>
     <row r="27" spans="1:15">
+      <c r="D27" s="1">
+        <v>51144</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.52792116377287657</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="6"/>
+        <v>6.2057132801501638</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5039300797747539</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,7 +1412,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="2"/>

--- a/calibrationResult.xlsx
+++ b/calibrationResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>X</t>
   </si>
@@ -265,11 +265,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +588,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -605,12 +605,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
@@ -676,6 +676,9 @@
         <f>F3</f>
         <v>6.3826770703454931</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
@@ -726,12 +729,12 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="F5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -848,7 +851,7 @@
       <c r="O7" s="2">
         <v>200</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f>O7/L7</f>
         <v>0.21083702298123549</v>
       </c>
@@ -956,12 +959,12 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1074,12 +1077,12 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>

--- a/calibrationResult.xlsx
+++ b/calibrationResult.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\microscope\Desktop\microscope_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\microscope_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2AAFBE-DA2C-495B-AD72-3DBBDA6E95FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20644" windowHeight="8307" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" timed jog Y" sheetId="2" r:id="rId2"/>
+    <sheet name="timed jog X" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>X</t>
   </si>
@@ -95,9 +98,6 @@
     <t>Without load</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
     <t>Specs</t>
   </si>
   <si>
@@ -128,9 +128,6 @@
     <t>#not recommended</t>
   </si>
   <si>
-    <t>20x</t>
-  </si>
-  <si>
     <t>assume lens movement</t>
   </si>
   <si>
@@ -154,11 +151,41 @@
   <si>
     <t>down up: less</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>↓ 5184</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>um/step</t>
+  </si>
+  <si>
+    <t>px/step 20x</t>
+  </si>
+  <si>
+    <t>Current Resolution</t>
+  </si>
+  <si>
+    <t>expected steps</t>
+  </si>
+  <si>
+    <t>real steps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -216,7 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,15 +292,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,6 +322,3225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Y-</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>' timed jog Y'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>real steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1058617672790901E-2"/>
+                  <c:y val="-0.15782407407407406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>' timed jog Y'!$A$3:$A$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>' timed jog Y'!$B$3:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-2139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1630</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-526</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-431</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61A7-44E7-B753-7BEFDF691793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="447959216"/>
+        <c:axId val="447960200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="447959216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447960200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="447960200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447959216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16703652668416447"/>
+                  <c:y val="-0.15202172645086032"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>' timed jog Y'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>' timed jog Y'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E1D-4F31-94D0-AAC3FA0A75F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441007928"/>
+        <c:axId val="447956920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441007928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447956920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="447956920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441007928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>X-</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1697287839020124E-3"/>
+                  <c:y val="-0.15782407407407406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDF6-4E27-A51C-F5401E4C4E28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585032440"/>
+        <c:axId val="585034080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="585032440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585034080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="585034080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585032440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545910</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313898</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117D015D-EFAE-48AE-97E6-341993141507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13648</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>382137</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1063F3-89B2-4CAE-A8A4-811032C63955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361665</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129653</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156949</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F6B248-2564-4768-BADA-0BE7739AC785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,33 +3839,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1"/>
-    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="4" width="8.8984375" style="1"/>
+    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="7" customWidth="1"/>
+    <col min="8" max="14" width="8.8984375" style="1"/>
+    <col min="15" max="15" width="17.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.8984375" style="1"/>
+    <col min="17" max="17" width="15.8984375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
@@ -670,11 +3925,14 @@
       </c>
       <c r="F3" s="5">
         <f>E3/$P$8</f>
-        <v>6.3826770703454931</v>
+        <v>2.3639544704983306</v>
       </c>
       <c r="G3" s="7">
         <f>F3</f>
-        <v>6.3826770703454931</v>
+        <v>2.3639544704983306</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>12</v>
@@ -700,11 +3958,11 @@
       </c>
       <c r="F4" s="5">
         <f>E4/$P$8</f>
-        <v>-5.8731857462727994</v>
+        <v>-2.1752539801010369</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:G8" si="0">F4</f>
-        <v>-5.8731857462727994</v>
+        <v>-2.1752539801010369</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>16</v>
@@ -729,12 +3987,12 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="F5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -756,8 +4014,8 @@
         <v>200</v>
       </c>
       <c r="P5" s="2">
-        <f>O5/L5</f>
-        <v>0.84961767204757854</v>
+        <f>(O5/L5)*5184/$P$12</f>
+        <v>2.293967714528462</v>
       </c>
       <c r="Q5" s="1">
         <f>L5/K5</f>
@@ -798,8 +4056,8 @@
         <v>200</v>
       </c>
       <c r="P6" s="2">
-        <f>O6/L6</f>
-        <v>0.42589437819420783</v>
+        <f t="shared" ref="P6:P8" si="2">(O6/L6)*5184/$P$12</f>
+        <v>1.1499148211243613</v>
       </c>
       <c r="Q6" s="1">
         <f>L6/K6</f>
@@ -821,16 +4079,16 @@
         <v>54404</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E8" si="2">27000/D7</f>
+        <f t="shared" ref="E7:E8" si="3">27000/D7</f>
         <v>0.49628703771781485</v>
       </c>
       <c r="F7" s="5">
         <f>E7/$P$8</f>
-        <v>5.8338541283729128</v>
+        <v>2.1606867142121899</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>5.8338541283729128</v>
+        <v>2.1606867142121899</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -851,9 +4109,9 @@
       <c r="O7" s="2">
         <v>200</v>
       </c>
-      <c r="P7" s="11">
-        <f>O7/L7</f>
-        <v>0.21083702298123549</v>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.56925996204933582</v>
       </c>
       <c r="Q7" s="1">
         <f>L7/K7</f>
@@ -875,16 +4133,16 @@
         <v>-56482.333333333336</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.47802557731916173</v>
       </c>
       <c r="F8" s="5">
         <f>E8/$P$8</f>
-        <v>-5.6191906613867459</v>
+        <v>-2.0811817264395351</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>-5.6191906613867459</v>
+        <v>-2.0811817264395351</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -905,9 +4163,9 @@
       <c r="O8" s="2">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <f>O8/L8</f>
-        <v>8.5070182900893243E-2</v>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22968949383241177</v>
       </c>
       <c r="Q8" s="1">
         <f>L8/K8</f>
@@ -959,78 +4217,89 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1920</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5184</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>P13*2/3</f>
+        <v>3456</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>52274</v>
-      </c>
-      <c r="B14" s="1">
-        <v>51457</v>
-      </c>
-      <c r="C14" s="1">
-        <v>51397</v>
-      </c>
-      <c r="D14" s="1">
-        <f>AVERAGE(A14:C14)</f>
-        <v>51709.333333333336</v>
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>51570</v>
       </c>
       <c r="E14" s="1">
-        <f>27000/D14</f>
-        <v>0.52214945077613328</v>
-      </c>
-      <c r="F14" s="5">
-        <f>E14/$P$8</f>
-        <v>6.1378667938734459</v>
+        <f>AVERAGE(B14:C14)</f>
+        <v>51570</v>
+      </c>
+      <c r="F14" s="1">
+        <f>27000/E14</f>
+        <v>0.52356020942408377</v>
       </c>
       <c r="G14" s="5">
-        <f>E14/$P$7</f>
-        <v>2.4765548450312003</v>
-      </c>
-      <c r="H14" s="2"/>
+        <f>F14/$P$8</f>
+        <v>2.2794260228815197</v>
+      </c>
+      <c r="H14" s="5">
+        <f>F14/$P$7</f>
+        <v>0.91972076788830726</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
@@ -1039,35 +4308,40 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="15">
+        <v>1920</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>P14*2/3</f>
+        <v>1280</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1">
-        <v>54411</v>
-      </c>
-      <c r="B15" s="1">
-        <v>53078</v>
-      </c>
-      <c r="C15" s="1">
-        <v>52932</v>
-      </c>
-      <c r="D15" s="1">
-        <f>AVERAGE(A15:C15)</f>
-        <v>53473.666666666664</v>
+      <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>52079</v>
       </c>
       <c r="E15" s="1">
-        <f>27000/D15</f>
-        <v>0.50492142549915542</v>
-      </c>
-      <c r="F15" s="5">
-        <f>E15/$P$8</f>
-        <v>5.9353513567425713</v>
+        <f>AVERAGE(B15:C15)</f>
+        <v>52079</v>
+      </c>
+      <c r="F15" s="1">
+        <f>27000/E15</f>
+        <v>0.51844313446878776</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:G27" si="3">E15/$P$7</f>
-        <v>2.3948423211424941</v>
-      </c>
-      <c r="H15" s="2"/>
+        <f>F15/$P$8</f>
+        <v>2.2571477946965182</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15:H27" si="4">F15/$P$7</f>
+        <v>0.91073177288350393</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1077,15 +4351,15 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
@@ -1097,21 +4371,20 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1123,29 +4396,28 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>53151</v>
-      </c>
-      <c r="B18" s="1">
-        <v>53099</v>
-      </c>
-      <c r="D18" s="1">
-        <f>AVERAGE(A18:C18)</f>
-        <v>53125</v>
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>54304</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E23" si="4">27000/D18</f>
-        <v>0.50823529411764701</v>
-      </c>
-      <c r="F18" s="5">
-        <f>E18/$P$8</f>
-        <v>5.9743058823529402</v>
+        <f>AVERAGE(B18:D18)</f>
+        <v>54304</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F23" si="5">27000/E18</f>
+        <v>0.49720094284030641</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4105599999999998</v>
-      </c>
-      <c r="H18" s="2"/>
+        <f>F18/$P$8</f>
+        <v>2.1646655863288151</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.87341632292280502</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6" t="s">
@@ -1157,29 +4429,28 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>51564</v>
+      <c r="A19" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="1">
-        <v>51232</v>
-      </c>
-      <c r="D19" s="1">
-        <f>AVERAGE(A19:C19)</f>
-        <v>51398</v>
+        <v>51144</v>
       </c>
       <c r="E19" s="1">
+        <f>AVERAGE(B19:D19)</f>
+        <v>51144</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52792116377287657</v>
+      </c>
+      <c r="G19" s="5">
+        <f>F19/$P$8</f>
+        <v>2.2984123259815421</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>0.5253122689598817</v>
-      </c>
-      <c r="F19" s="5">
-        <f>E19/$P$8</f>
-        <v>6.1750457216234089</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4915560916767192</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>0.92738151102768662</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1191,19 +4462,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="5" t="e">
-        <f t="shared" ref="F20" si="5">E20/$P$8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
@@ -1215,16 +4475,8 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="2"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1236,16 +4488,8 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
@@ -1257,25 +4501,11 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>51570</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="4"/>
-        <v>0.52356020942408377</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ref="F23:F27" si="6">E23/$P$8</f>
-        <v>6.154450261780104</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4832460732984294</v>
-      </c>
-      <c r="H23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1284,25 +4514,11 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>52079</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" ref="E24:E27" si="7">27000/D24</f>
-        <v>0.51844313446878776</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="6"/>
-        <v>6.0942990456806001</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4589757867854605</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1311,15 +4527,11 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1328,166 +4540,781 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="D26" s="2">
-        <v>54304</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="7"/>
-        <v>0.49720094284030641</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="6"/>
-        <v>5.8445970830878018</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>2.3582240718915735</v>
-      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="D27" s="1">
-        <v>51144</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="7"/>
-        <v>0.52792116377287657</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="6"/>
-        <v>6.2057132801501638</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5039300797747539</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="J29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1931.92</v>
-      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="J30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="1">
-        <v>300</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1784.64</v>
-      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="J31" s="1" t="s">
-        <v>28</v>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2"/>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="J32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12">
+        <v>1931.92</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="12">
+        <v>300</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1784.64</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:15">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:15">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:15">
       <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B78751B-6F5F-4DB6-ADDE-4812DF192A56}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-2000</v>
+      </c>
+      <c r="B3">
+        <v>-2139</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>-1900</v>
+      </c>
+      <c r="B4">
+        <v>-2038</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-1800</v>
+      </c>
+      <c r="B5">
+        <v>-1940</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>-1700</v>
+      </c>
+      <c r="B6">
+        <v>-1833</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>-1600</v>
+      </c>
+      <c r="B7">
+        <v>-1755</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>-1500</v>
+      </c>
+      <c r="B8">
+        <v>-1630</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>-1400</v>
+      </c>
+      <c r="B9">
+        <v>-1549</v>
+      </c>
+      <c r="D9">
+        <v>700</v>
+      </c>
+      <c r="E9">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>-1300</v>
+      </c>
+      <c r="B10">
+        <v>-1442</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>-1200</v>
+      </c>
+      <c r="B11">
+        <v>-1333</v>
+      </c>
+      <c r="D11">
+        <v>900</v>
+      </c>
+      <c r="E11">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>-1100</v>
+      </c>
+      <c r="B12">
+        <v>-1232</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>-1000</v>
+      </c>
+      <c r="B13">
+        <v>-1122</v>
+      </c>
+      <c r="D13">
+        <v>1100</v>
+      </c>
+      <c r="E13">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>-900</v>
+      </c>
+      <c r="B14">
+        <v>-1036</v>
+      </c>
+      <c r="D14">
+        <v>1200</v>
+      </c>
+      <c r="E14">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>-800</v>
+      </c>
+      <c r="B15">
+        <v>-942</v>
+      </c>
+      <c r="D15">
+        <v>1300</v>
+      </c>
+      <c r="E15">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>-700</v>
+      </c>
+      <c r="B16">
+        <v>-797</v>
+      </c>
+      <c r="D16">
+        <v>1400</v>
+      </c>
+      <c r="E16">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>-600</v>
+      </c>
+      <c r="B17">
+        <v>-741</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>-500</v>
+      </c>
+      <c r="B18">
+        <v>-619</v>
+      </c>
+      <c r="D18">
+        <v>1600</v>
+      </c>
+      <c r="E18">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>-400</v>
+      </c>
+      <c r="B19">
+        <v>-526</v>
+      </c>
+      <c r="D19">
+        <v>1700</v>
+      </c>
+      <c r="E19">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>-300</v>
+      </c>
+      <c r="B20">
+        <v>-431</v>
+      </c>
+      <c r="D20">
+        <v>1800</v>
+      </c>
+      <c r="E20">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>-200</v>
+      </c>
+      <c r="B21">
+        <v>-323</v>
+      </c>
+      <c r="D21">
+        <v>1900</v>
+      </c>
+      <c r="E21">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>-100</v>
+      </c>
+      <c r="B22">
+        <v>-215</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>2157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7FAE3A-29B3-484F-A09F-C7E87B15861E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>-2000</v>
+      </c>
+      <c r="B2">
+        <v>-2120</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-1900</v>
+      </c>
+      <c r="B3">
+        <v>-2012</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>-1800</v>
+      </c>
+      <c r="B4">
+        <v>-1915</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-1700</v>
+      </c>
+      <c r="B5">
+        <v>-1815</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>-1600</v>
+      </c>
+      <c r="B6">
+        <v>-1712</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>-1500</v>
+      </c>
+      <c r="B7">
+        <v>-1613</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>-1400</v>
+      </c>
+      <c r="B8">
+        <v>-1513</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+      <c r="E8">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>-1300</v>
+      </c>
+      <c r="B9">
+        <v>-1407</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>-1200</v>
+      </c>
+      <c r="B10">
+        <v>-1310</v>
+      </c>
+      <c r="D10">
+        <v>900</v>
+      </c>
+      <c r="E10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>-1100</v>
+      </c>
+      <c r="B11">
+        <v>-1209</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>-1000</v>
+      </c>
+      <c r="B12">
+        <v>-1109</v>
+      </c>
+      <c r="D12">
+        <v>1100</v>
+      </c>
+      <c r="E12">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>-900</v>
+      </c>
+      <c r="B13">
+        <v>-1005</v>
+      </c>
+      <c r="D13">
+        <v>1200</v>
+      </c>
+      <c r="E13">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>-800</v>
+      </c>
+      <c r="B14">
+        <v>-900</v>
+      </c>
+      <c r="D14">
+        <v>1300</v>
+      </c>
+      <c r="E14">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>-700</v>
+      </c>
+      <c r="B15">
+        <v>-803</v>
+      </c>
+      <c r="D15">
+        <v>1400</v>
+      </c>
+      <c r="E15">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>-600</v>
+      </c>
+      <c r="B16">
+        <v>-698</v>
+      </c>
+      <c r="D16">
+        <v>1500</v>
+      </c>
+      <c r="E16">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>-500</v>
+      </c>
+      <c r="B17">
+        <v>-599</v>
+      </c>
+      <c r="D17">
+        <v>1600</v>
+      </c>
+      <c r="E17">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>-400</v>
+      </c>
+      <c r="B18">
+        <v>-503</v>
+      </c>
+      <c r="D18">
+        <v>1700</v>
+      </c>
+      <c r="E18">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>-300</v>
+      </c>
+      <c r="B19">
+        <v>-398</v>
+      </c>
+      <c r="D19">
+        <v>1800</v>
+      </c>
+      <c r="E19">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>-200</v>
+      </c>
+      <c r="B20">
+        <v>-296</v>
+      </c>
+      <c r="D20">
+        <v>1900</v>
+      </c>
+      <c r="E20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>-100</v>
+      </c>
+      <c r="B21">
+        <v>-193</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>2114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/calibrationResult.xlsx
+++ b/calibrationResult.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\microscope_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\microscope\Desktop\microscope_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2AAFBE-DA2C-495B-AD72-3DBBDA6E95FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20644" windowHeight="8307" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name=" timed jog Y" sheetId="2" r:id="rId2"/>
-    <sheet name="timed jog X" sheetId="3" r:id="rId3"/>
+    <sheet name="timed jog X" sheetId="3" r:id="rId2"/>
+    <sheet name=" timed jog Y" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>X</t>
   </si>
@@ -176,16 +175,22 @@
     <t>Current Resolution</t>
   </si>
   <si>
-    <t>expected steps</t>
+    <t>real steps</t>
   </si>
   <si>
-    <t>real steps</t>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>nomi</t>
+  </si>
+  <si>
+    <t>nominative steps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -292,9 +297,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,9 +309,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +332,994 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>X-</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7930118662035813E-2"/>
+          <c:y val="0.17321400686605745"/>
+          <c:w val="0.85634500433604288"/>
+          <c:h val="0.7922209630783561"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1697287839020124E-3"/>
+                  <c:y val="-0.15782407407407406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-431</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDF6-4E27-A51C-F5401E4C4E28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585032440"/>
+        <c:axId val="585034080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="585032440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585034080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="585034080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585032440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>X+  nomi vs actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38638888888888889"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'timed jog X'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nomi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7883420822397206E-2"/>
+                  <c:y val="-0.2345417760279965"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'timed jog X'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4040-4653-972F-A76CDA00A0B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="320835032"/>
+        <c:axId val="320839624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="320835032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320839624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320839624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320835032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -364,6 +1356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -408,7 +1401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>real steps</c:v>
+                  <c:v>nominative steps</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -487,138 +1480,138 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>' timed jog Y'!$A$3:$A$112</c:f>
+              <c:f>' timed jog Y'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-2000</c:v>
+                  <c:v>-2154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1900</c:v>
+                  <c:v>-2045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1800</c:v>
+                  <c:v>-1936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1700</c:v>
+                  <c:v>-1856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1600</c:v>
+                  <c:v>-1748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1500</c:v>
+                  <c:v>-1642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1400</c:v>
+                  <c:v>-1533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1300</c:v>
+                  <c:v>-1429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1200</c:v>
+                  <c:v>-1346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1100</c:v>
+                  <c:v>-1239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1000</c:v>
+                  <c:v>-1130</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-900</c:v>
+                  <c:v>-1021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-800</c:v>
+                  <c:v>-942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-700</c:v>
+                  <c:v>-834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-600</c:v>
+                  <c:v>-732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-500</c:v>
+                  <c:v>-619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-400</c:v>
+                  <c:v>-539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-300</c:v>
+                  <c:v>-430</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-200</c:v>
+                  <c:v>-325</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-100</c:v>
+                  <c:v>-213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>' timed jog Y'!$B$3:$B$112</c:f>
+              <c:f>' timed jog Y'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-2139</c:v>
+                  <c:v>-2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2038</c:v>
+                  <c:v>-1900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1940</c:v>
+                  <c:v>-1800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1833</c:v>
+                  <c:v>-1700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1755</c:v>
+                  <c:v>-1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1630</c:v>
+                  <c:v>-1500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1549</c:v>
+                  <c:v>-1400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1442</c:v>
+                  <c:v>-1300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1333</c:v>
+                  <c:v>-1200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1232</c:v>
+                  <c:v>-1100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1122</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1036</c:v>
+                  <c:v>-900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-942</c:v>
+                  <c:v>-800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-797</c:v>
+                  <c:v>-700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-741</c:v>
+                  <c:v>-600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-619</c:v>
+                  <c:v>-500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-526</c:v>
+                  <c:v>-400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-431</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-323</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-215</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,6 +1768,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -782,7 +1776,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -817,10 +1810,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -832,6 +1825,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Y+</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,7 +1890,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -906,12 +1925,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16703652668416447"/>
-                  <c:y val="-0.15202172645086032"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -949,64 +1963,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1640</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,64 +2032,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>216</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>337</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>435</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>505</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>619</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>742</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>834</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>930</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1036</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1141</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1227</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1333</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1443</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1550</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1631</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1742</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1844</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1925</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2038</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2157</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +2097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E1D-4F31-94D0-AAC3FA0A75F4}"/>
+              <c16:uniqueId val="{00000000-8C1A-4EEB-839B-BB6E8449D9DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441007928"/>
-        <c:axId val="447956920"/>
+        <c:axId val="325879992"/>
+        <c:axId val="325877040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441007928"/>
+        <c:axId val="325879992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,12 +2170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447956920"/>
+        <c:crossAx val="325877040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447956920"/>
+        <c:axId val="325877040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441007928"/>
+        <c:crossAx val="325879992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1232,496 +2246,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>X-</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.1697287839020124E-3"/>
-                  <c:y val="-0.15782407407407406"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'timed jog X'!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1900</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-900</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-800</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-600</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-400</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-300</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'timed jog X'!$B$2:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>-2120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1915</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1712</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1613</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1407</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1310</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1209</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-900</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-803</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-698</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-503</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-398</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-296</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DDF6-4E27-A51C-F5401E4C4E28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="585032440"/>
-        <c:axId val="585034080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="585032440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="585034080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="585034080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="585032440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1877,6 +2401,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3425,7 +3989,594 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361665</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129653</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156949</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F6B248-2564-4768-BADA-0BE7739AC785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3466,25 +4617,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>13648</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81886</xdr:rowOff>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>382137</xdr:colOff>
+      <xdr:colOff>471487</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>163773</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1063F3-89B2-4CAE-A8A4-811032C63955}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3494,47 +4639,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361665</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>75062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129653</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156949</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F6B248-2564-4768-BADA-0BE7739AC785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3839,33 +4943,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="8.8984375" style="1"/>
-    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="7" customWidth="1"/>
-    <col min="8" max="14" width="8.8984375" style="1"/>
-    <col min="15" max="15" width="17.3984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.8984375" style="1"/>
-    <col min="17" max="17" width="15.8984375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="7" customWidth="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3987,12 +5091,12 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="F5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -4217,13 +5321,13 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7"/>
@@ -4238,7 +5342,7 @@
       <c r="O12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>1920</v>
       </c>
     </row>
@@ -4258,7 +5362,7 @@
       <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -4278,7 +5382,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2">
@@ -4292,7 +5396,7 @@
         <f>27000/E14</f>
         <v>0.52356020942408377</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="14">
         <f>F14/$P$8</f>
         <v>2.2794260228815197</v>
       </c>
@@ -4311,7 +5415,7 @@
       <c r="O14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <v>1920</v>
       </c>
       <c r="Q14" s="1">
@@ -4320,7 +5424,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="2">
@@ -4334,12 +5438,12 @@
         <f>27000/E15</f>
         <v>0.51844313446878776</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="14">
         <f>F15/$P$8</f>
         <v>2.2571477946965182</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ref="H15:H27" si="4">F15/$P$7</f>
+        <f t="shared" ref="H15:H19" si="4">F15/$P$7</f>
         <v>0.91073177288350393</v>
       </c>
       <c r="I15" s="2"/>
@@ -4351,14 +5455,14 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -4383,7 +5487,7 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -4396,7 +5500,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="2">
@@ -4407,10 +5511,10 @@
         <v>54304</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18:F23" si="5">27000/E18</f>
+        <f t="shared" ref="F18:F19" si="5">27000/E18</f>
         <v>0.49720094284030641</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="14">
         <f>F18/$P$8</f>
         <v>2.1646655863288151</v>
       </c>
@@ -4429,7 +5533,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="1">
@@ -4443,7 +5547,7 @@
         <f t="shared" si="5"/>
         <v>0.52792116377287657</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="14">
         <f>F19/$P$8</f>
         <v>2.2984123259815421</v>
       </c>
@@ -4462,7 +5566,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="G20" s="5"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -4475,7 +5579,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="G21" s="5"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -4488,7 +5592,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="G22" s="5"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4504,7 +5608,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4517,7 +5621,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -4530,7 +5634,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -4540,11 +5644,11 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="G26" s="5"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="G27" s="5"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="5"/>
     </row>
     <row r="29" spans="1:15">
@@ -4557,32 +5661,32 @@
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="12"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12" t="s">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4593,16 +5697,16 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11">
         <v>1931.92</v>
       </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2"/>
@@ -4611,18 +5715,18 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>300</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>1784.64</v>
       </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2"/>
@@ -4631,14 +5735,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2"/>
@@ -4647,14 +5751,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="11"/>
+      <c r="K35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2"/>
@@ -4701,14 +5805,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B78751B-6F5F-4DB6-ADDE-4812DF192A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
+        <v>-2134</v>
+      </c>
+      <c r="C2">
+        <v>-2000</v>
+      </c>
+      <c r="E2">
+        <v>215</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>-2044</v>
+      </c>
+      <c r="C3">
+        <v>-1900</v>
+      </c>
+      <c r="E3">
+        <v>324</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>-1937</v>
+      </c>
+      <c r="C4">
+        <v>-1800</v>
+      </c>
+      <c r="E4">
+        <v>432</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>-1855</v>
+      </c>
+      <c r="C5">
+        <v>-1700</v>
+      </c>
+      <c r="E5">
+        <v>538</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>-1752</v>
+      </c>
+      <c r="C6">
+        <v>-1600</v>
+      </c>
+      <c r="E6">
+        <v>619</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>-1644</v>
+      </c>
+      <c r="C7">
+        <v>-1500</v>
+      </c>
+      <c r="E7">
+        <v>728</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>-1533</v>
+      </c>
+      <c r="C8">
+        <v>-1400</v>
+      </c>
+      <c r="E8">
+        <v>834</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>-1425</v>
+      </c>
+      <c r="C9">
+        <v>-1300</v>
+      </c>
+      <c r="E9">
+        <v>943</v>
+      </c>
+      <c r="F9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>-1343</v>
+      </c>
+      <c r="C10">
+        <v>-1200</v>
+      </c>
+      <c r="E10">
+        <v>1022</v>
+      </c>
+      <c r="F10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>-1237</v>
+      </c>
+      <c r="C11">
+        <v>-1100</v>
+      </c>
+      <c r="E11">
+        <v>1129</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>-1129</v>
+      </c>
+      <c r="C12">
+        <v>-1000</v>
+      </c>
+      <c r="E12">
+        <v>1237</v>
+      </c>
+      <c r="F12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>-1022</v>
+      </c>
+      <c r="C13">
+        <v>-900</v>
+      </c>
+      <c r="E13">
+        <v>1347</v>
+      </c>
+      <c r="F13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>-941</v>
+      </c>
+      <c r="C14">
+        <v>-800</v>
+      </c>
+      <c r="E14">
+        <v>1432</v>
+      </c>
+      <c r="F14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>-834</v>
+      </c>
+      <c r="C15">
+        <v>-700</v>
+      </c>
+      <c r="E15">
+        <v>1534</v>
+      </c>
+      <c r="F15">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>-728</v>
+      </c>
+      <c r="C16">
+        <v>-600</v>
+      </c>
+      <c r="E16">
+        <v>1641</v>
+      </c>
+      <c r="F16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>-624</v>
+      </c>
+      <c r="C17">
+        <v>-500</v>
+      </c>
+      <c r="E17">
+        <v>1767</v>
+      </c>
+      <c r="F17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>-538</v>
+      </c>
+      <c r="C18">
+        <v>-400</v>
+      </c>
+      <c r="E18">
+        <v>1847</v>
+      </c>
+      <c r="F18">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>-431</v>
+      </c>
+      <c r="C19">
+        <v>-300</v>
+      </c>
+      <c r="E19">
+        <v>1936</v>
+      </c>
+      <c r="F19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>-324</v>
+      </c>
+      <c r="C20">
+        <v>-200</v>
+      </c>
+      <c r="E20">
+        <v>2044</v>
+      </c>
+      <c r="F20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>-215</v>
+      </c>
+      <c r="C21">
+        <v>-100</v>
+      </c>
+      <c r="E21">
+        <v>2151</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
@@ -4726,591 +6146,287 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
+        <v>-2154</v>
+      </c>
+      <c r="B3">
         <v>-2000</v>
       </c>
-      <c r="B3">
-        <v>-2139</v>
-      </c>
       <c r="D3">
+        <v>216</v>
+      </c>
+      <c r="E3">
         <v>100</v>
-      </c>
-      <c r="E3">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
+        <v>-2045</v>
+      </c>
+      <c r="B4">
         <v>-1900</v>
       </c>
-      <c r="B4">
-        <v>-2038</v>
-      </c>
       <c r="D4">
+        <v>324</v>
+      </c>
+      <c r="E4">
         <v>200</v>
-      </c>
-      <c r="E4">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
+        <v>-1936</v>
+      </c>
+      <c r="B5">
         <v>-1800</v>
       </c>
-      <c r="B5">
-        <v>-1940</v>
-      </c>
       <c r="D5">
+        <v>431</v>
+      </c>
+      <c r="E5">
         <v>300</v>
-      </c>
-      <c r="E5">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>-1856</v>
+      </c>
+      <c r="B6">
         <v>-1700</v>
       </c>
-      <c r="B6">
-        <v>-1833</v>
-      </c>
       <c r="D6">
+        <v>539</v>
+      </c>
+      <c r="E6">
         <v>400</v>
-      </c>
-      <c r="E6">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
+        <v>-1748</v>
+      </c>
+      <c r="B7">
         <v>-1600</v>
       </c>
-      <c r="B7">
-        <v>-1755</v>
-      </c>
       <c r="D7">
+        <v>619</v>
+      </c>
+      <c r="E7">
         <v>500</v>
-      </c>
-      <c r="E7">
-        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
+        <v>-1642</v>
+      </c>
+      <c r="B8">
         <v>-1500</v>
       </c>
-      <c r="B8">
-        <v>-1630</v>
-      </c>
       <c r="D8">
+        <v>726</v>
+      </c>
+      <c r="E8">
         <v>600</v>
-      </c>
-      <c r="E8">
-        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>-1533</v>
+      </c>
+      <c r="B9">
         <v>-1400</v>
       </c>
-      <c r="B9">
-        <v>-1549</v>
-      </c>
       <c r="D9">
+        <v>832</v>
+      </c>
+      <c r="E9">
         <v>700</v>
-      </c>
-      <c r="E9">
-        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
+        <v>-1429</v>
+      </c>
+      <c r="B10">
         <v>-1300</v>
       </c>
-      <c r="B10">
-        <v>-1442</v>
-      </c>
       <c r="D10">
+        <v>942</v>
+      </c>
+      <c r="E10">
         <v>800</v>
-      </c>
-      <c r="E10">
-        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
+        <v>-1346</v>
+      </c>
+      <c r="B11">
         <v>-1200</v>
       </c>
-      <c r="B11">
-        <v>-1333</v>
-      </c>
       <c r="D11">
+        <v>1022</v>
+      </c>
+      <c r="E11">
         <v>900</v>
-      </c>
-      <c r="E11">
-        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
+        <v>-1239</v>
+      </c>
+      <c r="B12">
         <v>-1100</v>
       </c>
-      <c r="B12">
-        <v>-1232</v>
-      </c>
       <c r="D12">
+        <v>1129</v>
+      </c>
+      <c r="E12">
         <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
+        <v>-1130</v>
+      </c>
+      <c r="B13">
         <v>-1000</v>
       </c>
-      <c r="B13">
-        <v>-1122</v>
-      </c>
       <c r="D13">
+        <v>1238</v>
+      </c>
+      <c r="E13">
         <v>1100</v>
-      </c>
-      <c r="E13">
-        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
+        <v>-1021</v>
+      </c>
+      <c r="B14">
         <v>-900</v>
       </c>
-      <c r="B14">
-        <v>-1036</v>
-      </c>
       <c r="D14">
+        <v>1350</v>
+      </c>
+      <c r="E14">
         <v>1200</v>
-      </c>
-      <c r="E14">
-        <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
+        <v>-942</v>
+      </c>
+      <c r="B15">
         <v>-800</v>
       </c>
-      <c r="B15">
-        <v>-942</v>
-      </c>
       <c r="D15">
+        <v>1441</v>
+      </c>
+      <c r="E15">
         <v>1300</v>
-      </c>
-      <c r="E15">
-        <v>1443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
+        <v>-834</v>
+      </c>
+      <c r="B16">
         <v>-700</v>
       </c>
-      <c r="B16">
-        <v>-797</v>
-      </c>
       <c r="D16">
+        <v>1533</v>
+      </c>
+      <c r="E16">
         <v>1400</v>
-      </c>
-      <c r="E16">
-        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
+        <v>-732</v>
+      </c>
+      <c r="B17">
         <v>-600</v>
       </c>
-      <c r="B17">
-        <v>-741</v>
-      </c>
       <c r="D17">
+        <v>1640</v>
+      </c>
+      <c r="E17">
         <v>1500</v>
-      </c>
-      <c r="E17">
-        <v>1631</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
+        <v>-619</v>
+      </c>
+      <c r="B18">
         <v>-500</v>
       </c>
-      <c r="B18">
-        <v>-619</v>
-      </c>
       <c r="D18">
+        <v>1750</v>
+      </c>
+      <c r="E18">
         <v>1600</v>
-      </c>
-      <c r="E18">
-        <v>1742</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
+        <v>-539</v>
+      </c>
+      <c r="B19">
         <v>-400</v>
       </c>
-      <c r="B19">
-        <v>-526</v>
-      </c>
       <c r="D19">
+        <v>1855</v>
+      </c>
+      <c r="E19">
         <v>1700</v>
-      </c>
-      <c r="E19">
-        <v>1844</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
+        <v>-430</v>
+      </c>
+      <c r="B20">
         <v>-300</v>
       </c>
-      <c r="B20">
-        <v>-431</v>
-      </c>
       <c r="D20">
+        <v>1937</v>
+      </c>
+      <c r="E20">
         <v>1800</v>
-      </c>
-      <c r="E20">
-        <v>1925</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
+        <v>-325</v>
+      </c>
+      <c r="B21">
         <v>-200</v>
       </c>
-      <c r="B21">
-        <v>-323</v>
-      </c>
       <c r="D21">
+        <v>2043</v>
+      </c>
+      <c r="E21">
         <v>1900</v>
-      </c>
-      <c r="E21">
-        <v>2038</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
+        <v>-213</v>
+      </c>
+      <c r="B22">
         <v>-100</v>
       </c>
-      <c r="B22">
-        <v>-215</v>
-      </c>
       <c r="D22">
+        <v>2152</v>
+      </c>
+      <c r="E22">
         <v>2000</v>
-      </c>
-      <c r="E22">
-        <v>2157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7FAE3A-29B3-484F-A09F-C7E87B15861E}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>-2000</v>
-      </c>
-      <c r="B2">
-        <v>-2120</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>-1900</v>
-      </c>
-      <c r="B3">
-        <v>-2012</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>-1800</v>
-      </c>
-      <c r="B4">
-        <v>-1915</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>-1700</v>
-      </c>
-      <c r="B5">
-        <v>-1815</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>-1600</v>
-      </c>
-      <c r="B6">
-        <v>-1712</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="E6">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>-1500</v>
-      </c>
-      <c r="B7">
-        <v>-1613</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>-1400</v>
-      </c>
-      <c r="B8">
-        <v>-1513</v>
-      </c>
-      <c r="D8">
-        <v>700</v>
-      </c>
-      <c r="E8">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>-1300</v>
-      </c>
-      <c r="B9">
-        <v>-1407</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-      <c r="E9">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>-1200</v>
-      </c>
-      <c r="B10">
-        <v>-1310</v>
-      </c>
-      <c r="D10">
-        <v>900</v>
-      </c>
-      <c r="E10">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>-1100</v>
-      </c>
-      <c r="B11">
-        <v>-1209</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>-1000</v>
-      </c>
-      <c r="B12">
-        <v>-1109</v>
-      </c>
-      <c r="D12">
-        <v>1100</v>
-      </c>
-      <c r="E12">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>-900</v>
-      </c>
-      <c r="B13">
-        <v>-1005</v>
-      </c>
-      <c r="D13">
-        <v>1200</v>
-      </c>
-      <c r="E13">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>-800</v>
-      </c>
-      <c r="B14">
-        <v>-900</v>
-      </c>
-      <c r="D14">
-        <v>1300</v>
-      </c>
-      <c r="E14">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>-700</v>
-      </c>
-      <c r="B15">
-        <v>-803</v>
-      </c>
-      <c r="D15">
-        <v>1400</v>
-      </c>
-      <c r="E15">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>-600</v>
-      </c>
-      <c r="B16">
-        <v>-698</v>
-      </c>
-      <c r="D16">
-        <v>1500</v>
-      </c>
-      <c r="E16">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>-500</v>
-      </c>
-      <c r="B17">
-        <v>-599</v>
-      </c>
-      <c r="D17">
-        <v>1600</v>
-      </c>
-      <c r="E17">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>-400</v>
-      </c>
-      <c r="B18">
-        <v>-503</v>
-      </c>
-      <c r="D18">
-        <v>1700</v>
-      </c>
-      <c r="E18">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>-300</v>
-      </c>
-      <c r="B19">
-        <v>-398</v>
-      </c>
-      <c r="D19">
-        <v>1800</v>
-      </c>
-      <c r="E19">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>-200</v>
-      </c>
-      <c r="B20">
-        <v>-296</v>
-      </c>
-      <c r="D20">
-        <v>1900</v>
-      </c>
-      <c r="E20">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>-100</v>
-      </c>
-      <c r="B21">
-        <v>-193</v>
-      </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-      <c r="E21">
-        <v>2114</v>
       </c>
     </row>
   </sheetData>
